--- a/Book 2.xlsx
+++ b/Book 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27DD81BF-E68D-4CF0-9D56-21D068BD12F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF563C4-0173-4742-A3A6-B38453F6AEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Vaccination Details of track Machine Name UTV9025 Date:25/07/21</t>
   </si>
@@ -121,6 +110,9 @@
   </si>
   <si>
     <t>T/283</t>
+  </si>
+  <si>
+    <t>changes</t>
   </si>
 </sst>
 </file>
@@ -479,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,6 +731,14 @@
         <v>7677407992</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
